--- a/public/uploads/batch.xlsx
+++ b/public/uploads/batch.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="9">
   <si>
     <t>Unique ID</t>
   </si>
@@ -35,13 +35,7 @@
     <t>Location</t>
   </si>
   <si>
-    <t>Over Time</t>
-  </si>
-  <si>
-    <t>Gross Wages</t>
-  </si>
-  <si>
-    <t>Deduction</t>
+    <t>commission</t>
   </si>
   <si>
     <t>Rahul</t>
@@ -387,7 +381,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -395,7 +389,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -417,14 +411,8 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>38</v>
       </c>
@@ -432,18 +420,12 @@
         <v>8555079</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
         <v>0</v>
       </c>
     </row>

--- a/public/uploads/batch.xlsx
+++ b/public/uploads/batch.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="38">
   <si>
     <t>Unique ID</t>
   </si>
@@ -35,13 +35,100 @@
     <t>Location</t>
   </si>
   <si>
-    <t>commission</t>
+    <t>salary</t>
+  </si>
+  <si>
+    <t>Payroll</t>
+  </si>
+  <si>
+    <t>user</t>
   </si>
   <si>
     <t>Rahul</t>
   </si>
   <si>
+    <t>Singh</t>
+  </si>
+  <si>
+    <t>Vipan</t>
+  </si>
+  <si>
+    <t>SIngh</t>
+  </si>
+  <si>
+    <t>fgbf475</t>
+  </si>
+  <si>
+    <t>Amazing</t>
+  </si>
+  <si>
+    <t>Tech</t>
+  </si>
+  <si>
+    <t>ABC &amp; Company Ltd.</t>
+  </si>
+  <si>
+    <t>Guru Gram</t>
+  </si>
+  <si>
+    <t>singh</t>
+  </si>
+  <si>
+    <t>dfg</t>
+  </si>
+  <si>
+    <t>Option1</t>
+  </si>
+  <si>
     <t>djsfld</t>
+  </si>
+  <si>
+    <t>last</t>
+  </si>
+  <si>
+    <t>ldfj</t>
+  </si>
+  <si>
+    <t>Shivam</t>
+  </si>
+  <si>
+    <t>Sharma</t>
+  </si>
+  <si>
+    <t>wrgr</t>
+  </si>
+  <si>
+    <t>wrgwrg</t>
+  </si>
+  <si>
+    <t>Sindal</t>
+  </si>
+  <si>
+    <t>Ali</t>
+  </si>
+  <si>
+    <t>Divyanshu</t>
+  </si>
+  <si>
+    <t>sharma</t>
+  </si>
+  <si>
+    <t>Shani</t>
+  </si>
+  <si>
+    <t>Deeksha</t>
+  </si>
+  <si>
+    <t>rfg</t>
+  </si>
+  <si>
+    <t>frg</t>
+  </si>
+  <si>
+    <t>test200</t>
+  </si>
+  <si>
+    <t>wjhfl</t>
   </si>
 </sst>
 </file>
@@ -381,7 +468,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -414,10 +501,10 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="B2">
-        <v>8555079</v>
+        <v>73587458</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
@@ -426,6 +513,361 @@
         <v>8</v>
       </c>
       <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>51626266</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>546565645</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>45665656</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>656564566</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>35</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>36</v>
+      </c>
+      <c r="B8">
+        <v>1717331145</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>37</v>
+      </c>
+      <c r="B9">
+        <v>4219374</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>38</v>
+      </c>
+      <c r="B10">
+        <v>8555079</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>40</v>
+      </c>
+      <c r="B11">
+        <v>9661213</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>41</v>
+      </c>
+      <c r="B12">
+        <v>8055987</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>42</v>
+      </c>
+      <c r="B13">
+        <v>8700876</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>48</v>
+      </c>
+      <c r="B14">
+        <v>2458966</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>49</v>
+      </c>
+      <c r="B15">
+        <v>8174062</v>
+      </c>
+      <c r="C15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>50</v>
+      </c>
+      <c r="B16">
+        <v>8039995</v>
+      </c>
+      <c r="C16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17">
+        <v>51</v>
+      </c>
+      <c r="B17">
+        <v>5412289</v>
+      </c>
+      <c r="C17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" t="s">
+        <v>31</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18">
+        <v>52</v>
+      </c>
+      <c r="B18">
+        <v>5859013</v>
+      </c>
+      <c r="C18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" t="s">
+        <v>31</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19">
+        <v>53</v>
+      </c>
+      <c r="B19">
+        <v>7445776</v>
+      </c>
+      <c r="C19" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" t="s">
+        <v>35</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20">
+        <v>54</v>
+      </c>
+      <c r="B20">
+        <v>4596373</v>
+      </c>
+      <c r="C20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" t="s">
+        <v>25</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21">
+        <v>55</v>
+      </c>
+      <c r="B21">
+        <v>2842458</v>
+      </c>
+      <c r="C21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" t="s">
+        <v>16</v>
+      </c>
+      <c r="F21" t="s">
+        <v>17</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22">
+        <v>57</v>
+      </c>
+      <c r="B22">
+        <v>4141811</v>
+      </c>
+      <c r="C22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" t="s">
+        <v>37</v>
+      </c>
+      <c r="G22">
         <v>0</v>
       </c>
     </row>

--- a/public/uploads/batch.xlsx
+++ b/public/uploads/batch.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="53">
   <si>
     <t>Unique ID</t>
   </si>
@@ -35,7 +35,10 @@
     <t>Location</t>
   </si>
   <si>
-    <t>salary</t>
+    <t>Designation</t>
+  </si>
+  <si>
+    <t>DOJ</t>
   </si>
   <si>
     <t>Payroll</t>
@@ -44,15 +47,30 @@
     <t>user</t>
   </si>
   <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>2024-05-22</t>
+  </si>
+  <si>
     <t>Rahul</t>
   </si>
   <si>
     <t>Singh</t>
   </si>
   <si>
+    <t>2024-05-16</t>
+  </si>
+  <si>
     <t>Vipan</t>
   </si>
   <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>2024-06-03</t>
+  </si>
+  <si>
     <t>SIngh</t>
   </si>
   <si>
@@ -71,9 +89,15 @@
     <t>Guru Gram</t>
   </si>
   <si>
+    <t>2024-06-12</t>
+  </si>
+  <si>
     <t>singh</t>
   </si>
   <si>
+    <t>2024-06-04</t>
+  </si>
+  <si>
     <t>dfg</t>
   </si>
   <si>
@@ -83,9 +107,15 @@
     <t>djsfld</t>
   </si>
   <si>
+    <t>2024-06-10</t>
+  </si>
+  <si>
     <t>last</t>
   </si>
   <si>
+    <t>2024-06-13</t>
+  </si>
+  <si>
     <t>ldfj</t>
   </si>
   <si>
@@ -95,6 +125,9 @@
     <t>Sharma</t>
   </si>
   <si>
+    <t>2024-06-01</t>
+  </si>
+  <si>
     <t>wrgr</t>
   </si>
   <si>
@@ -107,6 +140,9 @@
     <t>Ali</t>
   </si>
   <si>
+    <t>2024-06-05</t>
+  </si>
+  <si>
     <t>Divyanshu</t>
   </si>
   <si>
@@ -119,13 +155,22 @@
     <t>Deeksha</t>
   </si>
   <si>
+    <t>2024-06-06</t>
+  </si>
+  <si>
     <t>rfg</t>
   </si>
   <si>
     <t>frg</t>
   </si>
   <si>
+    <t>adfd</t>
+  </si>
+  <si>
     <t>test200</t>
+  </si>
+  <si>
+    <t>2023-02-05</t>
   </si>
   <si>
     <t>wjhfl</t>
@@ -468,7 +513,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,7 +521,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -498,8 +543,11 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>1</v>
       </c>
@@ -507,16 +555,19 @@
         <v>73587458</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>9</v>
+      </c>
+      <c r="G2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>2</v>
       </c>
@@ -524,16 +575,19 @@
         <v>51626266</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
         <v>10</v>
       </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>3</v>
       </c>
@@ -541,16 +595,19 @@
         <v>546565645</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>4</v>
       </c>
@@ -558,16 +615,16 @@
         <v>45665656</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>18</v>
+      </c>
+      <c r="G5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>5</v>
       </c>
@@ -575,39 +632,42 @@
         <v>656564566</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>13</v>
+      </c>
+      <c r="G6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>23</v>
+      </c>
+      <c r="G7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8">
         <v>36</v>
       </c>
@@ -615,16 +675,19 @@
         <v>1717331145</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>25</v>
+      </c>
+      <c r="G8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9">
         <v>37</v>
       </c>
@@ -632,19 +695,22 @@
         <v>4219374</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>28</v>
+      </c>
+      <c r="G9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10">
         <v>38</v>
       </c>
@@ -652,16 +718,19 @@
         <v>8555079</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>29</v>
+      </c>
+      <c r="G10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11">
         <v>40</v>
       </c>
@@ -669,16 +738,19 @@
         <v>9661213</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>31</v>
+      </c>
+      <c r="G11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12">
         <v>41</v>
       </c>
@@ -686,16 +758,19 @@
         <v>8055987</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>33</v>
+      </c>
+      <c r="G12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13">
         <v>42</v>
       </c>
@@ -703,16 +778,19 @@
         <v>8700876</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>35</v>
+      </c>
+      <c r="G13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14">
         <v>48</v>
       </c>
@@ -720,16 +798,19 @@
         <v>2458966</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="D14" t="s">
-        <v>27</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>38</v>
+      </c>
+      <c r="G14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15">
         <v>49</v>
       </c>
@@ -737,16 +818,19 @@
         <v>8174062</v>
       </c>
       <c r="C15" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="D15" t="s">
-        <v>29</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="G15" t="s">
+        <v>16</v>
+      </c>
+      <c r="H15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16">
         <v>50</v>
       </c>
@@ -754,16 +838,19 @@
         <v>8039995</v>
       </c>
       <c r="C16" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="D16" t="s">
-        <v>31</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>43</v>
+      </c>
+      <c r="G16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17">
         <v>51</v>
       </c>
@@ -771,16 +858,19 @@
         <v>5412289</v>
       </c>
       <c r="C17" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="D17" t="s">
-        <v>31</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+        <v>43</v>
+      </c>
+      <c r="G17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18">
         <v>52</v>
       </c>
@@ -788,16 +878,19 @@
         <v>5859013</v>
       </c>
       <c r="C18" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="D18" t="s">
-        <v>31</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+        <v>43</v>
+      </c>
+      <c r="G18" t="s">
+        <v>16</v>
+      </c>
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19">
         <v>53</v>
       </c>
@@ -805,16 +898,19 @@
         <v>7445776</v>
       </c>
       <c r="C19" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="D19" t="s">
-        <v>35</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>48</v>
+      </c>
+      <c r="G19" t="s">
+        <v>49</v>
+      </c>
+      <c r="H19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20">
         <v>54</v>
       </c>
@@ -822,16 +918,19 @@
         <v>4596373</v>
       </c>
       <c r="C20" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="D20" t="s">
-        <v>25</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>35</v>
+      </c>
+      <c r="G20" t="s">
+        <v>49</v>
+      </c>
+      <c r="H20" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21">
         <v>55</v>
       </c>
@@ -839,22 +938,25 @@
         <v>2842458</v>
       </c>
       <c r="C21" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E21" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F21" t="s">
-        <v>17</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>23</v>
+      </c>
+      <c r="G21" t="s">
+        <v>16</v>
+      </c>
+      <c r="H21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22">
         <v>57</v>
       </c>
@@ -862,13 +964,16 @@
         <v>4141811</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D22" t="s">
-        <v>37</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
+        <v>52</v>
+      </c>
+      <c r="G22" t="s">
+        <v>16</v>
+      </c>
+      <c r="H22" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/public/uploads/batch.xlsx
+++ b/public/uploads/batch.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="38">
   <si>
     <t>Unique ID</t>
   </si>
@@ -36,6 +36,99 @@
   </si>
   <si>
     <t>salary</t>
+  </si>
+  <si>
+    <t>Rahul</t>
+  </si>
+  <si>
+    <t>Singh</t>
+  </si>
+  <si>
+    <t>Vipan</t>
+  </si>
+  <si>
+    <t>SIngh</t>
+  </si>
+  <si>
+    <t>singh</t>
+  </si>
+  <si>
+    <t>dfg</t>
+  </si>
+  <si>
+    <t>Option1</t>
+  </si>
+  <si>
+    <t>djsfld</t>
+  </si>
+  <si>
+    <t>last</t>
+  </si>
+  <si>
+    <t>ldfj</t>
+  </si>
+  <si>
+    <t>Shivam</t>
+  </si>
+  <si>
+    <t>Sharma</t>
+  </si>
+  <si>
+    <t>wrgr</t>
+  </si>
+  <si>
+    <t>wrgwrg</t>
+  </si>
+  <si>
+    <t>Sindal</t>
+  </si>
+  <si>
+    <t>Ali</t>
+  </si>
+  <si>
+    <t>Divyanshu</t>
+  </si>
+  <si>
+    <t>sharma</t>
+  </si>
+  <si>
+    <t>Shani</t>
+  </si>
+  <si>
+    <t>rfg</t>
+  </si>
+  <si>
+    <t>frg</t>
+  </si>
+  <si>
+    <t>test200</t>
+  </si>
+  <si>
+    <t>ABC &amp; Company Ltd.</t>
+  </si>
+  <si>
+    <t>Guru Gram</t>
+  </si>
+  <si>
+    <t>wjhfl</t>
+  </si>
+  <si>
+    <t>sdhkf</t>
+  </si>
+  <si>
+    <t>Accenture Inc</t>
+  </si>
+  <si>
+    <t>Pune</t>
+  </si>
+  <si>
+    <t>fgbf475</t>
+  </si>
+  <si>
+    <t>Amazing</t>
+  </si>
+  <si>
+    <t>Tech</t>
   </si>
 </sst>
 </file>
@@ -375,7 +468,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -404,6 +497,384 @@
       </c>
       <c r="G1" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>51626266</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2">
+        <v>5000.0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>546565645</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3">
+        <v>5000.0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>45665656</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4">
+        <v>5000.0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>656564566</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5">
+        <v>5000.0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>36</v>
+      </c>
+      <c r="B6">
+        <v>1717331145</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6">
+        <v>5000.0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>37</v>
+      </c>
+      <c r="B7">
+        <v>4219374</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7">
+        <v>5000.0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>38</v>
+      </c>
+      <c r="B8">
+        <v>8555079</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8">
+        <v>5000.0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>40</v>
+      </c>
+      <c r="B9">
+        <v>9661213</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9">
+        <v>5000.0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>41</v>
+      </c>
+      <c r="B10">
+        <v>8055987</v>
+      </c>
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10">
+        <v>5000.0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>42</v>
+      </c>
+      <c r="B11">
+        <v>8700876</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11">
+        <v>5000.0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>48</v>
+      </c>
+      <c r="B12">
+        <v>2458966</v>
+      </c>
+      <c r="C12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12">
+        <v>5000.0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>49</v>
+      </c>
+      <c r="B13">
+        <v>8174062</v>
+      </c>
+      <c r="C13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13">
+        <v>5000.0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>50</v>
+      </c>
+      <c r="B14">
+        <v>8039995</v>
+      </c>
+      <c r="C14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14">
+        <v>5000.0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>51</v>
+      </c>
+      <c r="B15">
+        <v>5412289</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15">
+        <v>5000.0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>53</v>
+      </c>
+      <c r="B16">
+        <v>7445776</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>27</v>
+      </c>
+      <c r="G16">
+        <v>5000.0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17">
+        <v>54</v>
+      </c>
+      <c r="B17">
+        <v>4596373</v>
+      </c>
+      <c r="C17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17">
+        <v>5000.0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18">
+        <v>55</v>
+      </c>
+      <c r="B18">
+        <v>2842458</v>
+      </c>
+      <c r="C18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18">
+        <v>5000.0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19">
+        <v>57</v>
+      </c>
+      <c r="B19">
+        <v>4141811</v>
+      </c>
+      <c r="C19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" t="s">
+        <v>31</v>
+      </c>
+      <c r="G19">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20">
+        <v>59</v>
+      </c>
+      <c r="B20">
+        <v>2995803</v>
+      </c>
+      <c r="C20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" t="s">
+        <v>32</v>
+      </c>
+      <c r="G20">
+        <v>400.0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21">
+        <v>58</v>
+      </c>
+      <c r="B21">
+        <v>6398068</v>
+      </c>
+      <c r="C21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" t="s">
+        <v>33</v>
+      </c>
+      <c r="F21" t="s">
+        <v>34</v>
+      </c>
+      <c r="G21">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22">
+        <v>35</v>
+      </c>
+      <c r="B22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" t="s">
+        <v>37</v>
+      </c>
+      <c r="E22" t="s">
+        <v>29</v>
+      </c>
+      <c r="F22" t="s">
+        <v>30</v>
+      </c>
+      <c r="G22">
+        <v>5000.0</v>
       </c>
     </row>
   </sheetData>

--- a/public/uploads/batch.xlsx
+++ b/public/uploads/batch.xlsx
@@ -513,7 +513,7 @@
         <v>8</v>
       </c>
       <c r="G2">
-        <v>5000.0</v>
+        <v>400.0</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -530,7 +530,7 @@
         <v>8</v>
       </c>
       <c r="G3">
-        <v>5000.0</v>
+        <v>600.0</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -547,7 +547,7 @@
         <v>10</v>
       </c>
       <c r="G4">
-        <v>5000.0</v>
+        <v>700.0</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -564,7 +564,7 @@
         <v>8</v>
       </c>
       <c r="G5">
-        <v>5000.0</v>
+        <v>800.0</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -581,7 +581,7 @@
         <v>11</v>
       </c>
       <c r="G6">
-        <v>5000.0</v>
+        <v>900.0</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -601,7 +601,7 @@
         <v>13</v>
       </c>
       <c r="G7">
-        <v>5000.0</v>
+        <v>1000.0</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -618,7 +618,7 @@
         <v>14</v>
       </c>
       <c r="G8">
-        <v>5000.0</v>
+        <v>2000.0</v>
       </c>
     </row>
     <row r="9" spans="1:7">
